--- a/testing/d1b_se.xlsx
+++ b/testing/d1b_se.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="49" uniqueCount="37">
   <si>
     <t>d1b_glmm</t>
   </si>
@@ -27,55 +27,52 @@
     <t xml:space="preserve">  1</t>
   </si>
   <si>
-    <t>(0.114)</t>
-  </si>
-  <si>
-    <t>(0.089)</t>
+    <t>(0.077)</t>
+  </si>
+  <si>
+    <t>(0.080)</t>
   </si>
   <si>
     <t xml:space="preserve">  2</t>
   </si>
   <si>
-    <t>(0.123)</t>
-  </si>
-  <si>
-    <t>(0.099)</t>
+    <t>(0.090)</t>
+  </si>
+  <si>
+    <t>(0.095)</t>
   </si>
   <si>
     <t xml:space="preserve">  3</t>
   </si>
   <si>
-    <t>(0.136)</t>
-  </si>
-  <si>
-    <t>(0.116)</t>
+    <t>(0.110)</t>
+  </si>
+  <si>
+    <t>(0.117)</t>
   </si>
   <si>
     <t xml:space="preserve">  4</t>
   </si>
   <si>
-    <t>(0.154)</t>
-  </si>
-  <si>
-    <t>(0.137)</t>
+    <t>(0.131)</t>
+  </si>
+  <si>
+    <t>(0.139)</t>
   </si>
   <si>
     <t xml:space="preserve">  5</t>
   </si>
   <si>
-    <t>(0.174)</t>
-  </si>
-  <si>
-    <t>(0.158)</t>
+    <t>(0.151)</t>
+  </si>
+  <si>
+    <t>(0.160)</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>(0.117)</t>
-  </si>
-  <si>
-    <t>(0.110)</t>
+    <t>(0.108)</t>
   </si>
   <si>
     <t>M1[i]</t>
@@ -93,31 +90,37 @@
     <t>var(M1[i])</t>
   </si>
   <si>
-    <t>(0.155)</t>
+    <t>(0.030)</t>
+  </si>
+  <si>
+    <t>(0.034)</t>
   </si>
   <si>
     <t>var(M2[i&gt;id])</t>
   </si>
   <si>
-    <t>(0.305)</t>
-  </si>
-  <si>
-    <t>(0.742)</t>
-  </si>
-  <si>
-    <t>(5.05e+05)</t>
-  </si>
-  <si>
-    <t>(0.071)</t>
-  </si>
-  <si>
-    <t>(0.216)</t>
+    <t>(0.133)</t>
+  </si>
+  <si>
+    <t>(0.141)</t>
+  </si>
+  <si>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t>(0.198)</t>
+  </si>
+  <si>
+    <t>(0.082)</t>
+  </si>
+  <si>
+    <t>(0.055)</t>
   </si>
   <si>
     <t>ln_p</t>
   </si>
   <si>
-    <t>(0.060)</t>
+    <t>(0.027)</t>
   </si>
   <si>
     <t>Number of observations</t>
@@ -1949,54 +1952,54 @@
         <v>3</v>
       </c>
       <c r="B9" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" s="56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="C13" s="74" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -2020,50 +2023,50 @@
         <v>3</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="109">
-        <v>6917</v>
+        <v>8043</v>
       </c>
       <c r="C21" s="113">
-        <v>8436</v>
+        <v>9990</v>
       </c>
     </row>
   </sheetData>
